--- a/data/calendar-booking.xlsx
+++ b/data/calendar-booking.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Calendar\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E4AEB-D6F0-4DC4-8356-E9ECDBABBE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+  <si>
+    <t>Booking ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Guests</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Booking Date</t>
+  </si>
+  <si>
+    <t>Special Requests</t>
+  </si>
+  <si>
+    <t>Plan Name</t>
+  </si>
+  <si>
+    <t>Plan Price</t>
+  </si>
+  <si>
+    <t>SNOW-001</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>john@email.com</t>
+  </si>
+  <si>
+    <t>555-0101</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Late check-in requested</t>
+  </si>
+  <si>
+    <t>Weekend Getaway</t>
+  </si>
+  <si>
+    <t>SNOW-002</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +120,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +407,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45371</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12800</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45352</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45372</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12800</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45352</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7e753c2c-bb14-4786-921b-97c6a6fc424f}" enabled="1" method="Standard" siteId="{3bd97919-57c3-48d3-9e9a-8e4c01614a8f}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>
--- a/data/calendar-booking.xlsx
+++ b/data/calendar-booking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Calendar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E4AEB-D6F0-4DC4-8356-E9ECDBABBE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A63A39-71D3-4D69-8676-A2E82FF1F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Special Requests</t>
   </si>
   <si>
-    <t>Plan Name</t>
-  </si>
-  <si>
     <t>Plan Price</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>SNOW-002</t>
+  </si>
+  <si>
+    <t>Plan</t>
   </si>
 </sst>
 </file>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,12 +422,14 @@
     <col min="4" max="4" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -450,98 +452,98 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>45371</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
         <v>12800</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>12800</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45352</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45352</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1">
-        <v>12800</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>45372</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
         <v>12800</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>12800</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45352</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45352</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1">
-        <v>12800</v>
       </c>
     </row>
   </sheetData>

--- a/data/calendar-booking.xlsx
+++ b/data/calendar-booking.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Calendar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A63A39-71D3-4D69-8676-A2E82FF1F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F5E615-1A83-4245-89DC-3423E725CF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/data/calendar-booking.xlsx
+++ b/data/calendar-booking.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Calendar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F5E615-1A83-4245-89DC-3423E725CF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9007F6F-931C-4296-8C71-E1D824CAD8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63360" yWindow="3870" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bookings" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -411,7 +411,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
